--- a/data/trans_camb/P12A1_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_3_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,34</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-5,35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 33,92</t>
+          <t>-5,45; 21,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 32,78</t>
+          <t>-9,38; 14,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 46,11</t>
+          <t>-7,42; 21,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 20,48</t>
+          <t>-18,89; 7,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 34,3</t>
+          <t>-28,6; -5,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 15,74</t>
+          <t>-17,15; 11,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 9,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 1,9</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 13,32</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>126,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>123,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-32,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-55,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,54; 91,3</t>
+          <t>-60,7; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 91,07</t>
+          <t>-81,77; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 102,13</t>
+          <t>-53,06; 1231,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 42,06</t>
+          <t>-93,3; 156,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 75,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 32,64</t>
+          <t>-87,91; 235,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-60,74; 179,79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-90,7; 54,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-56,26; 231,34</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,93</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 12,71</t>
+          <t>-6,36; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 12,09</t>
+          <t>-6,33; 5,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 30,82</t>
+          <t>-3,72; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 22,71</t>
+          <t>-4,67; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 15,2</t>
+          <t>-4,75; 2,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 11,93</t>
+          <t>-1,78; 8,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 2,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 2,58</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 6,67</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,41%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,45%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>-26,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,03%</t>
+          <t>-27,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>63,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-13,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43,49%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 39,84</t>
+          <t>-63,87; 111,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,0; 41,35</t>
+          <t>-62,26; 140,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 108,67</t>
+          <t>-40,99; 208,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 89,78</t>
+          <t>-78,09; 156,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,89; 48,08</t>
+          <t>-78,73; 152,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 36,12</t>
+          <t>-43,69; 374,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-52,61; 66,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-53,14; 71,22</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 162,97</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,02</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 37,39</t>
+          <t>-1,41; 7,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 43,78</t>
+          <t>-1,47; 8,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 11,61</t>
+          <t>-1,82; 7,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 20,83</t>
+          <t>-6,66; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 13,38</t>
+          <t>-5,41; 3,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 23,84</t>
+          <t>-5,0; 4,7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 3,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 4,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 4,42</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>122,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>120,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,25%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>-42,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 456,79</t>
+          <t>-65,94; 1215,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,77; 650,52</t>
+          <t>-69,48; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,61; 25,45</t>
+          <t>-71,19; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 48,23</t>
+          <t>-88,41; 87,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 40,48</t>
+          <t>-75,28; 143,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 73,42</t>
+          <t>-68,53; 206,92</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-58,19; 159,96</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-51,74; 185,4</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-50,52; 196,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 14,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 23,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 9,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 7,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 40,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 46,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 54,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 22,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 36,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 18,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 5,34</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 4,71</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 7,17</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 1,05</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 0,0</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 5,11</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 2,14</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,4</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>34,34%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>60,14%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-34,14%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-46,98%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-14,99%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-30,25; 155,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-36,14; 136,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 198,08</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-70,06; 30,77</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-75,38; 9,48</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,94; 119,7</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-38,79; 52,5</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-47,09; 34,98</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 122,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
